--- a/랜덤교수님디펜스_요소정리본.xlsx
+++ b/랜덤교수님디펜스_요소정리본.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\github_folder\random-professor-defense\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joosa\OneDrive\바탕 화면\Git 연습\random-professor-defense\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B7A627C7-C570-416D-9F0F-3DA8D75A27C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56486E83-2AA3-4800-BCA3-E1C088E913A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{60008300-A602-4F4E-9C10-0368E2679821}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="88">
   <si>
     <t>선배들</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -193,6 +193,202 @@
   </si>
   <si>
     <t>세미나 따라오라는 교수님</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CC하는 행복한 선배</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CC개진 선배</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대학원에서 대가리 깨진 선배</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>졸업반 선배</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학생회장 선배</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>교수님 꿀팁 알려주는 선배</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>술고래 선배</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알쓰 선배</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대리출석 해주시는 선배</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동아리 회장 선배</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>과대표 선배</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>헬창선배</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화석선배</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>킹카 선배</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>퀸카 선배</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아싸 선배</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인싸 선배</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>꼰대 선배</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개방적인 선배</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보수 선배</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진보 선배</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자취하는 선배</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반포자이에 사는 선배</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자차있는 선배</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시너지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인싸클럽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사랑뿅뿅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>극대노</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>혐오</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해줘!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>돈과 권력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_틀_</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>외로워</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3/4/5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력 +5/7/10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격속도 +0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬쿨타임 -2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4/5/6/7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1초마다 체력 감소(정확한 값 미지정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3/4/5/6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추가골드 지급</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3//4/5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적 이동속도 감소 -10%/20/30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬공격력 x2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뽀뽀</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -200,6 +396,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="179" formatCode="0_);[Red]\(0\)"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -335,9 +534,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -348,6 +544,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -664,83 +863,412 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{859DCE7D-6C53-4BF5-8718-A5E31E362420}">
-  <dimension ref="B2:D8"/>
+  <dimension ref="B1:L33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView zoomScale="82" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="3" max="3" width="26.09765625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.69921875" customWidth="1"/>
+    <col min="5" max="5" width="16.09765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.59765625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="33.8984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="13.69921875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B2" t="s">
+    <row r="1" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="E1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="E2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F2">
+        <v>3</v>
+      </c>
+      <c r="G2" s="9">
+        <v>3</v>
+      </c>
+      <c r="I2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J2" t="s">
+        <v>82</v>
+      </c>
+      <c r="K2">
+        <v>4</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B3" t="s">
+      <c r="E3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H3" t="s">
+        <v>79</v>
+      </c>
+      <c r="I3" t="s">
+        <v>81</v>
+      </c>
+      <c r="J3" t="s">
+        <v>83</v>
+      </c>
+      <c r="K3" t="s">
+        <v>86</v>
+      </c>
+      <c r="L3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B4" t="s">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
         <v>2</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B4">
+      <c r="E4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H4" t="s">
+        <v>68</v>
+      </c>
+      <c r="I4" t="s">
+        <v>71</v>
+      </c>
+      <c r="J4" t="s">
+        <v>72</v>
+      </c>
+      <c r="K4" t="s">
+        <v>73</v>
+      </c>
+      <c r="L4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B5">
         <v>3</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F5" t="s">
+        <v>65</v>
+      </c>
+      <c r="H5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="C6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B5">
+      <c r="I6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="C7" t="s">
+        <v>44</v>
+      </c>
+      <c r="I7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="C8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="C9" t="s">
+        <v>46</v>
+      </c>
+      <c r="L9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="C10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="C11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" t="s">
+        <v>65</v>
+      </c>
+      <c r="F11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="C12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="C13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" t="s">
+        <v>65</v>
+      </c>
+      <c r="H13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="C14" t="s">
+        <v>54</v>
+      </c>
+      <c r="H14" t="s">
+        <v>70</v>
+      </c>
+      <c r="L14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="C15" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="C16" t="s">
+        <v>56</v>
+      </c>
+      <c r="G16" t="s">
+        <v>65</v>
+      </c>
+      <c r="K16" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B17">
         <v>3.5</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C17" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B6">
+      <c r="I17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="C18" t="s">
+        <v>49</v>
+      </c>
+      <c r="J18" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="I19" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="C20" t="s">
+        <v>50</v>
+      </c>
+      <c r="J20" t="s">
+        <v>65</v>
+      </c>
+      <c r="L20" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="C21" t="s">
+        <v>43</v>
+      </c>
+      <c r="J21" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="C22" t="s">
+        <v>48</v>
+      </c>
+      <c r="J22" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="C23" t="s">
+        <v>58</v>
+      </c>
+      <c r="H23" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="C24" t="s">
+        <v>59</v>
+      </c>
+      <c r="H24" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B25">
         <v>4</v>
       </c>
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B7">
+      <c r="C25" t="s">
+        <v>60</v>
+      </c>
+      <c r="L25" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="C26" t="s">
+        <v>51</v>
+      </c>
+      <c r="K26" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="C27" t="s">
+        <v>40</v>
+      </c>
+      <c r="G27" t="s">
+        <v>65</v>
+      </c>
+      <c r="H27" t="s">
+        <v>69</v>
+      </c>
+      <c r="L27" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="C28" t="s">
+        <v>6</v>
+      </c>
+      <c r="J28" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="C29" t="s">
+        <v>42</v>
+      </c>
+      <c r="G29" t="s">
+        <v>65</v>
+      </c>
+      <c r="K29" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B30">
         <v>4.5</v>
       </c>
-      <c r="C7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="C8" t="s">
+      <c r="C30" t="s">
         <v>7</v>
+      </c>
+      <c r="I30" t="s">
+        <v>65</v>
+      </c>
+      <c r="K30" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="C31" t="s">
+        <v>41</v>
+      </c>
+      <c r="G31" t="s">
+        <v>65</v>
+      </c>
+      <c r="K31" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="C32" t="s">
+        <v>61</v>
+      </c>
+      <c r="J32" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="C33" t="s">
+        <v>62</v>
+      </c>
+      <c r="I33" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43AFF31E-3DD1-41A7-9298-AC8C1EC63368}">
-  <dimension ref="B2:L9"/>
+  <dimension ref="B2:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -754,18 +1282,18 @@
     <col min="11" max="11" width="28.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" t="s">
         <v>16</v>
       </c>
       <c r="K2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B3" s="1"/>
       <c r="C3" s="2" t="s">
         <v>10</v>
@@ -783,119 +1311,102 @@
       <c r="K3" t="s">
         <v>38</v>
       </c>
-      <c r="L3" s="5"/>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.4">
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B4" s="4">
         <v>1</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5" t="s">
+      <c r="F4" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="5" t="s">
         <v>22</v>
       </c>
       <c r="J4" t="s">
         <v>33</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="K4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B5" s="4">
         <v>2</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5" t="s">
+      <c r="E5" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5" t="s">
+      <c r="G5" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="6"/>
+      <c r="H5" s="5"/>
       <c r="J5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B6" s="4">
         <v>3</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5" t="s">
+      <c r="F6" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="6"/>
+      <c r="H6" s="5"/>
       <c r="J6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B7" s="4">
         <v>4</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5" t="s">
+      <c r="E7" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5" t="s">
+      <c r="G7" t="s">
         <v>30</v>
       </c>
-      <c r="H7" s="6"/>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B8" s="7">
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B8" s="6">
         <v>5</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8" t="s">
+      <c r="E8" s="7"/>
+      <c r="F8" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="9" t="s">
+      <c r="G8" s="7"/>
+      <c r="H8" s="8" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -925,6 +1436,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="문서" ma:contentTypeID="0x010100ECF9E722297AC345B2A57380052E5E48" ma:contentTypeVersion="4" ma:contentTypeDescription="새 문서를 만듭니다." ma:contentTypeScope="" ma:versionID="78363713d41ce0922b6fd80264949de2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="fd57ced1-2b3e-49e2-9044-0235051c91ef" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2f281e80ea270599bc48a95ad500a678" ns3:_="">
     <xsd:import namespace="fd57ced1-2b3e-49e2-9044-0235051c91ef"/>
@@ -1070,22 +1596,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77EAD5D9-46C0-4150-B405-47AA29834A98}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="fd57ced1-2b3e-49e2-9044-0235051c91ef"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{492BDB53-1B45-4109-8E85-9000C6560349}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4AAF691E-2AC5-4FDA-9D18-61109D120562}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1101,28 +1636,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{492BDB53-1B45-4109-8E85-9000C6560349}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77EAD5D9-46C0-4150-B405-47AA29834A98}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="fd57ced1-2b3e-49e2-9044-0235051c91ef"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/랜덤교수님디펜스_요소정리본.xlsx
+++ b/랜덤교수님디펜스_요소정리본.xlsx
@@ -8,14 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joosa\OneDrive\바탕 화면\Git 연습\random-professor-defense\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56486E83-2AA3-4800-BCA3-E1C088E913A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ED76798-5A80-4838-870E-C0AEF77689F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{60008300-A602-4F4E-9C10-0368E2679821}"/>
   </bookViews>
   <sheets>
     <sheet name="선배" sheetId="1" r:id="rId1"/>
     <sheet name="빌런" sheetId="2" r:id="rId2"/>
-    <sheet name="보스" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
   <si>
     <t>선배들</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -88,22 +87,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>12~20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15~25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20~35</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30~45</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>boss</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -164,10 +147,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>보스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1스테이지</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -389,6 +368,42 @@
   </si>
   <si>
     <t>뽀뽀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>atk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2~1.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25~40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15~30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40~55</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50~65</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>speed</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -397,7 +412,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="179" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -424,92 +439,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -518,35 +453,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -863,10 +777,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{859DCE7D-6C53-4BF5-8718-A5E31E362420}">
-  <dimension ref="B1:L33"/>
+  <dimension ref="B1:O33"/>
   <sheetViews>
-    <sheetView zoomScale="82" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView zoomScale="62" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -881,64 +795,73 @@
     <col min="12" max="12" width="27.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:15" x14ac:dyDescent="0.4">
       <c r="E1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.4">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.4">
       <c r="E2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F2">
         <v>3</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G2" s="1">
         <v>3</v>
       </c>
       <c r="I2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="J2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="K2">
         <v>4</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="L2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="M2" t="s">
+        <v>83</v>
+      </c>
+      <c r="N2" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="O2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
         <v>0</v>
       </c>
       <c r="E3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G3" t="s">
+        <v>73</v>
+      </c>
+      <c r="H3" t="s">
+        <v>74</v>
+      </c>
+      <c r="I3" t="s">
         <v>76</v>
       </c>
-      <c r="F3" t="s">
-        <v>77</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="J3" t="s">
         <v>78</v>
       </c>
-      <c r="H3" t="s">
-        <v>79</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>81</v>
       </c>
-      <c r="J3" t="s">
-        <v>83</v>
-      </c>
-      <c r="K3" t="s">
-        <v>86</v>
-      </c>
       <c r="L3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
         <v>1</v>
       </c>
@@ -949,151 +872,259 @@
         <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>62</v>
+      </c>
+      <c r="H4" t="s">
+        <v>63</v>
+      </c>
+      <c r="I4" t="s">
         <v>66</v>
       </c>
-      <c r="G4" t="s">
+      <c r="J4" t="s">
         <v>67</v>
       </c>
-      <c r="H4" t="s">
+      <c r="K4" t="s">
         <v>68</v>
       </c>
-      <c r="I4" t="s">
-        <v>71</v>
-      </c>
-      <c r="J4" t="s">
-        <v>72</v>
-      </c>
-      <c r="K4" t="s">
-        <v>73</v>
-      </c>
       <c r="L4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.4">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B5">
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D5" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="F5" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="H5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.4">
+        <v>64</v>
+      </c>
+      <c r="M5">
+        <v>6</v>
+      </c>
+      <c r="N5">
+        <v>1.4</v>
+      </c>
+      <c r="O5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.4">
       <c r="C6" t="s">
         <v>3</v>
       </c>
       <c r="I6" t="s">
+        <v>60</v>
+      </c>
+      <c r="M6">
+        <v>6</v>
+      </c>
+      <c r="N6">
+        <v>1.4</v>
+      </c>
+      <c r="O6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="C7" t="s">
+        <v>39</v>
+      </c>
+      <c r="I7" t="s">
+        <v>60</v>
+      </c>
+      <c r="M7">
+        <v>6</v>
+      </c>
+      <c r="N7">
+        <v>1.4</v>
+      </c>
+      <c r="O7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="C8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" t="s">
+        <v>60</v>
+      </c>
+      <c r="M8">
+        <v>6</v>
+      </c>
+      <c r="N8">
+        <v>1.4</v>
+      </c>
+      <c r="O8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="C9" t="s">
+        <v>41</v>
+      </c>
+      <c r="L9" t="s">
+        <v>60</v>
+      </c>
+      <c r="M9">
+        <v>6</v>
+      </c>
+      <c r="N9">
+        <v>1.4</v>
+      </c>
+      <c r="O9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="C10" t="s">
+        <v>42</v>
+      </c>
+      <c r="I10" t="s">
+        <v>60</v>
+      </c>
+      <c r="M10">
+        <v>6</v>
+      </c>
+      <c r="N10">
+        <v>1.4</v>
+      </c>
+      <c r="O10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="C11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" t="s">
+        <v>60</v>
+      </c>
+      <c r="M11">
+        <v>6</v>
+      </c>
+      <c r="N11">
+        <v>1.4</v>
+      </c>
+      <c r="O11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="C12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" t="s">
+        <v>60</v>
+      </c>
+      <c r="M12">
+        <v>6</v>
+      </c>
+      <c r="N12">
+        <v>1.4</v>
+      </c>
+      <c r="O12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="C13" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" t="s">
+        <v>60</v>
+      </c>
+      <c r="H13" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="C7" t="s">
-        <v>44</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="M13">
+        <v>6</v>
+      </c>
+      <c r="N13">
+        <v>1.4</v>
+      </c>
+      <c r="O13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="C14" t="s">
+        <v>49</v>
+      </c>
+      <c r="H14" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="C8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="C9" t="s">
-        <v>46</v>
-      </c>
-      <c r="L9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="C10" t="s">
-        <v>47</v>
-      </c>
-      <c r="I10" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="C11" t="s">
+      <c r="L14" t="s">
+        <v>60</v>
+      </c>
+      <c r="M14">
+        <v>6</v>
+      </c>
+      <c r="N14">
+        <v>1.4</v>
+      </c>
+      <c r="O14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="C15" t="s">
         <v>52</v>
       </c>
-      <c r="E11" t="s">
-        <v>65</v>
-      </c>
-      <c r="F11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="C12" t="s">
-        <v>53</v>
-      </c>
-      <c r="E12" t="s">
-        <v>65</v>
-      </c>
-      <c r="F12" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="C13" t="s">
-        <v>55</v>
-      </c>
-      <c r="E13" t="s">
-        <v>65</v>
-      </c>
-      <c r="H13" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="C14" t="s">
-        <v>54</v>
-      </c>
-      <c r="H14" t="s">
-        <v>70</v>
-      </c>
-      <c r="L14" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="C15" t="s">
-        <v>57</v>
-      </c>
       <c r="E15" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.4">
+        <v>60</v>
+      </c>
+      <c r="M15">
+        <v>6</v>
+      </c>
+      <c r="N15">
+        <v>1.4</v>
+      </c>
+      <c r="O15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.4">
       <c r="C16" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="G16" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="K16" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.4">
+        <v>60</v>
+      </c>
+      <c r="M16">
+        <v>6</v>
+      </c>
+      <c r="N16">
+        <v>1.4</v>
+      </c>
+      <c r="O16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B17">
         <v>3.5</v>
       </c>
@@ -1101,121 +1132,238 @@
         <v>4</v>
       </c>
       <c r="I17" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.4">
+        <v>60</v>
+      </c>
+      <c r="M17">
+        <v>8</v>
+      </c>
+      <c r="N17" t="s">
+        <v>86</v>
+      </c>
+      <c r="O17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.4">
       <c r="C18" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="J18" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.4">
+        <v>60</v>
+      </c>
+      <c r="M18">
+        <v>8</v>
+      </c>
+      <c r="N18" t="s">
+        <v>86</v>
+      </c>
+      <c r="O18">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.4">
       <c r="C19" t="s">
         <v>5</v>
       </c>
       <c r="I19" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.4">
+        <v>60</v>
+      </c>
+      <c r="M19">
+        <v>8</v>
+      </c>
+      <c r="N19" t="s">
+        <v>86</v>
+      </c>
+      <c r="O19">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.4">
       <c r="C20" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="J20" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="L20" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.4">
+        <v>60</v>
+      </c>
+      <c r="M20">
+        <v>8</v>
+      </c>
+      <c r="N20" t="s">
+        <v>86</v>
+      </c>
+      <c r="O20">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.4">
       <c r="C21" t="s">
+        <v>38</v>
+      </c>
+      <c r="J21" t="s">
+        <v>60</v>
+      </c>
+      <c r="M21">
+        <v>8</v>
+      </c>
+      <c r="N21" t="s">
+        <v>86</v>
+      </c>
+      <c r="O21">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="C22" t="s">
         <v>43</v>
       </c>
-      <c r="J21" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="C22" t="s">
-        <v>48</v>
-      </c>
       <c r="J22" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.4">
+        <v>60</v>
+      </c>
+      <c r="M22">
+        <v>8</v>
+      </c>
+      <c r="N22" t="s">
+        <v>86</v>
+      </c>
+      <c r="O22">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.4">
       <c r="C23" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="H23" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.4">
+        <v>60</v>
+      </c>
+      <c r="M23">
+        <v>8</v>
+      </c>
+      <c r="N23" t="s">
+        <v>86</v>
+      </c>
+      <c r="O23">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.4">
       <c r="C24" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="H24" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.4">
+        <v>60</v>
+      </c>
+      <c r="M24">
+        <v>8</v>
+      </c>
+      <c r="N24" t="s">
+        <v>86</v>
+      </c>
+      <c r="O24">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B25">
         <v>4</v>
       </c>
       <c r="C25" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="L25" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.4">
+        <v>60</v>
+      </c>
+      <c r="M25">
+        <v>11</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.4">
       <c r="C26" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="K26" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.4">
+        <v>60</v>
+      </c>
+      <c r="M26">
+        <v>11</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.4">
       <c r="C27" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G27" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="H27" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="L27" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.4">
+        <v>60</v>
+      </c>
+      <c r="M27">
+        <v>11</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.4">
       <c r="C28" t="s">
         <v>6</v>
       </c>
       <c r="J28" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.4">
+        <v>60</v>
+      </c>
+      <c r="M28">
+        <v>11</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.4">
       <c r="C29" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G29" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="K29" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.4">
+        <v>60</v>
+      </c>
+      <c r="M29">
+        <v>11</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B30">
         <v>4.5</v>
       </c>
@@ -1223,37 +1371,73 @@
         <v>7</v>
       </c>
       <c r="I30" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="K30" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.4">
+        <v>60</v>
+      </c>
+      <c r="M30">
+        <v>13</v>
+      </c>
+      <c r="N30">
+        <v>0.7</v>
+      </c>
+      <c r="O30">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.4">
       <c r="C31" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G31" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="K31" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.4">
+        <v>60</v>
+      </c>
+      <c r="M31">
+        <v>13</v>
+      </c>
+      <c r="N31">
+        <v>0.7</v>
+      </c>
+      <c r="O31">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.4">
       <c r="C32" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="J32" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="33" spans="3:9" x14ac:dyDescent="0.4">
+        <v>60</v>
+      </c>
+      <c r="M32">
+        <v>13</v>
+      </c>
+      <c r="N32">
+        <v>0.7</v>
+      </c>
+      <c r="O32">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C33" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="I33" t="s">
-        <v>65</v>
+        <v>60</v>
+      </c>
+      <c r="M33">
+        <v>13</v>
+      </c>
+      <c r="N33">
+        <v>0.7</v>
+      </c>
+      <c r="O33">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1265,10 +1449,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43AFF31E-3DD1-41A7-9298-AC8C1EC63368}">
-  <dimension ref="B2:K8"/>
+  <dimension ref="B2:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1282,151 +1466,159 @@
     <col min="11" max="11" width="28.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B2" t="s">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B3" s="1"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="2"/>
+      <c r="D3" t="s">
+        <v>91</v>
+      </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="2"/>
+      <c r="I3" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4">
+        <v>0.7</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B5" s="2">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="J3" t="s">
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B6" s="2">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B7" s="2">
+        <v>4</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B8" s="2">
+        <v>5</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="D16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="D17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="D18" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" t="s">
         <v>32</v>
       </c>
-      <c r="K3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B4" s="4">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" t="s">
-        <v>33</v>
-      </c>
-      <c r="K4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B5" s="4">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" t="s">
+    </row>
+    <row r="19" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="D19" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="5"/>
-      <c r="J5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B6" s="4">
-        <v>3</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" t="s">
-        <v>24</v>
-      </c>
-      <c r="H6" s="5"/>
-      <c r="J6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B7" s="4">
-        <v>4</v>
-      </c>
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" t="s">
+    </row>
+    <row r="20" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="D20" t="s">
         <v>30</v>
-      </c>
-      <c r="H7" s="5"/>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B8" s="6">
-        <v>5</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" s="7"/>
-      <c r="H8" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F17376A7-7063-4901-BB4D-AB52332F2ED7}">
-  <dimension ref="B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
-  <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B2" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1436,21 +1628,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="문서" ma:contentTypeID="0x010100ECF9E722297AC345B2A57380052E5E48" ma:contentTypeVersion="4" ma:contentTypeDescription="새 문서를 만듭니다." ma:contentTypeScope="" ma:versionID="78363713d41ce0922b6fd80264949de2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="fd57ced1-2b3e-49e2-9044-0235051c91ef" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2f281e80ea270599bc48a95ad500a678" ns3:_="">
     <xsd:import namespace="fd57ced1-2b3e-49e2-9044-0235051c91ef"/>
@@ -1596,31 +1773,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77EAD5D9-46C0-4150-B405-47AA29834A98}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="fd57ced1-2b3e-49e2-9044-0235051c91ef"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{492BDB53-1B45-4109-8E85-9000C6560349}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4AAF691E-2AC5-4FDA-9D18-61109D120562}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1636,4 +1804,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{492BDB53-1B45-4109-8E85-9000C6560349}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77EAD5D9-46C0-4150-B405-47AA29834A98}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="fd57ced1-2b3e-49e2-9044-0235051c91ef"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/랜덤교수님디펜스_요소정리본.xlsx
+++ b/랜덤교수님디펜스_요소정리본.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joosa\OneDrive\바탕 화면\Git 연습\random-professor-defense\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ED76798-5A80-4838-870E-C0AEF77689F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{911661DB-5533-4031-887E-D91F840D0840}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{60008300-A602-4F4E-9C10-0368E2679821}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{60008300-A602-4F4E-9C10-0368E2679821}"/>
   </bookViews>
   <sheets>
     <sheet name="선배" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="93">
   <si>
     <t>선배들</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -71,10 +71,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>스킬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>빌런</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -83,10 +79,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>12~15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>boss</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -355,10 +347,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3//4/5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>적 이동속도 감소 -10%/20/30</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -367,10 +355,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>뽀뽀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>atk</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -383,10 +367,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.2~1.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>25~40</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -404,6 +384,30 @@
   </si>
   <si>
     <t>speed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>29명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12~15(</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hp평균</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>논문 뺏어가는 교수님</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>졸업 안 시켜주시는 교수님</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3/4/5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -460,7 +464,7 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -777,73 +781,78 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{859DCE7D-6C53-4BF5-8718-A5E31E362420}">
-  <dimension ref="B1:O33"/>
+  <dimension ref="B1:N33"/>
   <sheetViews>
-    <sheetView zoomScale="62" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" zoomScale="58" workbookViewId="0">
+      <selection activeCell="O35" sqref="O35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="3" max="3" width="26.09765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.69921875" customWidth="1"/>
-    <col min="5" max="5" width="16.09765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.59765625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="33.8984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="13.69921875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="27.8984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.09765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.59765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.8984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="13.69921875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="27.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="E1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="E2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F2">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="D1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="D2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2">
         <v>3</v>
       </c>
-      <c r="G2" s="1">
+      <c r="F2" s="1">
         <v>3</v>
+      </c>
+      <c r="H2" t="s">
+        <v>73</v>
       </c>
       <c r="I2" t="s">
         <v>75</v>
       </c>
-      <c r="J2" t="s">
-        <v>77</v>
-      </c>
-      <c r="K2">
+      <c r="J2">
         <v>4</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="K2" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="L2" t="s">
         <v>79</v>
       </c>
       <c r="M2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="N2" t="s">
-        <v>84</v>
-      </c>
-      <c r="O2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.4">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
         <v>0</v>
       </c>
+      <c r="C3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" t="s">
+        <v>69</v>
+      </c>
       <c r="E3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F3" t="s">
         <v>71</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>72</v>
-      </c>
-      <c r="G3" t="s">
-        <v>73</v>
       </c>
       <c r="H3" t="s">
         <v>74</v>
@@ -855,13 +864,10 @@
         <v>78</v>
       </c>
       <c r="K3" t="s">
-        <v>81</v>
-      </c>
-      <c r="L3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.4">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
         <v>1</v>
       </c>
@@ -869,574 +875,568 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="E4" t="s">
         <v>59</v>
       </c>
       <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
         <v>61</v>
       </c>
-      <c r="G4" t="s">
-        <v>62</v>
-      </c>
       <c r="H4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4" t="s">
         <v>66</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>67</v>
       </c>
-      <c r="K4" t="s">
-        <v>68</v>
-      </c>
-      <c r="L4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.4">
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B5">
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" t="s">
-        <v>82</v>
-      </c>
-      <c r="F5" t="s">
-        <v>60</v>
-      </c>
-      <c r="H5" t="s">
-        <v>64</v>
+        <v>32</v>
+      </c>
+      <c r="E5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G5" t="s">
+        <v>62</v>
+      </c>
+      <c r="L5">
+        <v>6</v>
       </c>
       <c r="M5">
-        <v>6</v>
+        <v>1.5</v>
       </c>
       <c r="N5">
-        <v>1.4</v>
-      </c>
-      <c r="O5">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.4">
       <c r="C6" t="s">
         <v>3</v>
       </c>
-      <c r="I6" t="s">
-        <v>60</v>
+      <c r="H6" t="s">
+        <v>58</v>
+      </c>
+      <c r="L6">
+        <v>6</v>
       </c>
       <c r="M6">
+        <v>1.5</v>
+      </c>
+      <c r="N6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="C7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" t="s">
+        <v>58</v>
+      </c>
+      <c r="L7">
         <v>6</v>
       </c>
-      <c r="N6">
-        <v>1.4</v>
-      </c>
-      <c r="O6">
+      <c r="M7">
+        <v>1.5</v>
+      </c>
+      <c r="N7">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="C7" t="s">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="C8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" t="s">
+        <v>58</v>
+      </c>
+      <c r="L8">
+        <v>6</v>
+      </c>
+      <c r="M8">
+        <v>1.5</v>
+      </c>
+      <c r="N8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="C9" t="s">
         <v>39</v>
       </c>
-      <c r="I7" t="s">
-        <v>60</v>
-      </c>
-      <c r="M7">
+      <c r="K9" t="s">
+        <v>58</v>
+      </c>
+      <c r="L9">
         <v>6</v>
       </c>
-      <c r="N7">
-        <v>1.4</v>
-      </c>
-      <c r="O7">
+      <c r="M9">
+        <v>1.5</v>
+      </c>
+      <c r="N9">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="C8" t="s">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="C10" t="s">
         <v>40</v>
       </c>
-      <c r="E8" t="s">
-        <v>60</v>
-      </c>
-      <c r="M8">
+      <c r="H10" t="s">
+        <v>58</v>
+      </c>
+      <c r="L10">
         <v>6</v>
       </c>
-      <c r="N8">
-        <v>1.4</v>
-      </c>
-      <c r="O8">
+      <c r="M10">
+        <v>1.5</v>
+      </c>
+      <c r="N10">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="C9" t="s">
-        <v>41</v>
-      </c>
-      <c r="L9" t="s">
-        <v>60</v>
-      </c>
-      <c r="M9">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="C11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" t="s">
+        <v>58</v>
+      </c>
+      <c r="L11">
         <v>6</v>
       </c>
-      <c r="N9">
-        <v>1.4</v>
-      </c>
-      <c r="O9">
+      <c r="M11">
+        <v>1.5</v>
+      </c>
+      <c r="N11">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="C10" t="s">
-        <v>42</v>
-      </c>
-      <c r="I10" t="s">
-        <v>60</v>
-      </c>
-      <c r="M10">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="C12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" t="s">
+        <v>58</v>
+      </c>
+      <c r="L12">
         <v>6</v>
       </c>
-      <c r="N10">
-        <v>1.4</v>
-      </c>
-      <c r="O10">
+      <c r="M12">
+        <v>1.5</v>
+      </c>
+      <c r="N12">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="C11" t="s">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="C13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" t="s">
+        <v>58</v>
+      </c>
+      <c r="G13" t="s">
+        <v>63</v>
+      </c>
+      <c r="L13">
+        <v>6</v>
+      </c>
+      <c r="M13">
+        <v>1.5</v>
+      </c>
+      <c r="N13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="C14" t="s">
         <v>47</v>
       </c>
-      <c r="E11" t="s">
-        <v>60</v>
-      </c>
-      <c r="F11" t="s">
-        <v>60</v>
-      </c>
-      <c r="M11">
+      <c r="G14" t="s">
+        <v>63</v>
+      </c>
+      <c r="K14" t="s">
+        <v>58</v>
+      </c>
+      <c r="L14">
         <v>6</v>
       </c>
-      <c r="N11">
-        <v>1.4</v>
-      </c>
-      <c r="O11">
+      <c r="M14">
+        <v>1.5</v>
+      </c>
+      <c r="N14">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="C12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12" t="s">
-        <v>60</v>
-      </c>
-      <c r="F12" t="s">
-        <v>60</v>
-      </c>
-      <c r="M12">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="C15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" t="s">
+        <v>58</v>
+      </c>
+      <c r="L15">
         <v>6</v>
       </c>
-      <c r="N12">
-        <v>1.4</v>
-      </c>
-      <c r="O12">
+      <c r="M15">
+        <v>1.5</v>
+      </c>
+      <c r="N15">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="C13" t="s">
-        <v>50</v>
-      </c>
-      <c r="E13" t="s">
-        <v>60</v>
-      </c>
-      <c r="H13" t="s">
-        <v>65</v>
-      </c>
-      <c r="M13">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="C16" t="s">
+        <v>49</v>
+      </c>
+      <c r="F16" t="s">
+        <v>58</v>
+      </c>
+      <c r="J16" t="s">
+        <v>58</v>
+      </c>
+      <c r="L16">
         <v>6</v>
       </c>
-      <c r="N13">
-        <v>1.4</v>
-      </c>
-      <c r="O13">
+      <c r="M16">
+        <v>1.5</v>
+      </c>
+      <c r="N16">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="C14" t="s">
-        <v>49</v>
-      </c>
-      <c r="H14" t="s">
-        <v>65</v>
-      </c>
-      <c r="L14" t="s">
-        <v>60</v>
-      </c>
-      <c r="M14">
-        <v>6</v>
-      </c>
-      <c r="N14">
-        <v>1.4</v>
-      </c>
-      <c r="O14">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="C15" t="s">
-        <v>52</v>
-      </c>
-      <c r="E15" t="s">
-        <v>60</v>
-      </c>
-      <c r="M15">
-        <v>6</v>
-      </c>
-      <c r="N15">
-        <v>1.4</v>
-      </c>
-      <c r="O15">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="C16" t="s">
-        <v>51</v>
-      </c>
-      <c r="G16" t="s">
-        <v>60</v>
-      </c>
-      <c r="K16" t="s">
-        <v>60</v>
-      </c>
-      <c r="M16">
-        <v>6</v>
-      </c>
-      <c r="N16">
-        <v>1.4</v>
-      </c>
-      <c r="O16">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B17">
         <v>3.5</v>
       </c>
       <c r="C17" t="s">
         <v>4</v>
       </c>
-      <c r="I17" t="s">
-        <v>60</v>
+      <c r="H17" t="s">
+        <v>58</v>
+      </c>
+      <c r="L17">
+        <v>8</v>
       </c>
       <c r="M17">
+        <v>1.2</v>
+      </c>
+      <c r="N17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="C18" t="s">
+        <v>42</v>
+      </c>
+      <c r="I18" t="s">
+        <v>58</v>
+      </c>
+      <c r="L18">
         <v>8</v>
       </c>
-      <c r="N17" t="s">
-        <v>86</v>
-      </c>
-      <c r="O17">
+      <c r="M18">
+        <v>1.2</v>
+      </c>
+      <c r="N18">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="C18" t="s">
-        <v>44</v>
-      </c>
-      <c r="J18" t="s">
-        <v>60</v>
-      </c>
-      <c r="M18">
-        <v>8</v>
-      </c>
-      <c r="N18" t="s">
-        <v>86</v>
-      </c>
-      <c r="O18">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.4">
       <c r="C19" t="s">
         <v>5</v>
       </c>
-      <c r="I19" t="s">
-        <v>60</v>
+      <c r="H19" t="s">
+        <v>58</v>
+      </c>
+      <c r="L19">
+        <v>8</v>
       </c>
       <c r="M19">
+        <v>1.2</v>
+      </c>
+      <c r="N19">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="C20" t="s">
+        <v>43</v>
+      </c>
+      <c r="I20" t="s">
+        <v>58</v>
+      </c>
+      <c r="K20" t="s">
+        <v>58</v>
+      </c>
+      <c r="L20">
         <v>8</v>
       </c>
-      <c r="N19" t="s">
-        <v>86</v>
-      </c>
-      <c r="O19">
+      <c r="M20">
+        <v>1.2</v>
+      </c>
+      <c r="N20">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="C20" t="s">
-        <v>45</v>
-      </c>
-      <c r="J20" t="s">
-        <v>60</v>
-      </c>
-      <c r="L20" t="s">
-        <v>60</v>
-      </c>
-      <c r="M20">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="C21" t="s">
+        <v>36</v>
+      </c>
+      <c r="I21" t="s">
+        <v>58</v>
+      </c>
+      <c r="L21">
         <v>8</v>
       </c>
-      <c r="N20" t="s">
-        <v>86</v>
-      </c>
-      <c r="O20">
+      <c r="M21">
+        <v>1.2</v>
+      </c>
+      <c r="N21">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="C21" t="s">
-        <v>38</v>
-      </c>
-      <c r="J21" t="s">
-        <v>60</v>
-      </c>
-      <c r="M21">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="C22" t="s">
+        <v>41</v>
+      </c>
+      <c r="I22" t="s">
+        <v>58</v>
+      </c>
+      <c r="L22">
         <v>8</v>
       </c>
-      <c r="N21" t="s">
-        <v>86</v>
-      </c>
-      <c r="O21">
+      <c r="M22">
+        <v>1.2</v>
+      </c>
+      <c r="N22">
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="C22" t="s">
-        <v>43</v>
-      </c>
-      <c r="J22" t="s">
-        <v>60</v>
-      </c>
-      <c r="M22">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="C23" t="s">
+        <v>51</v>
+      </c>
+      <c r="G23" t="s">
+        <v>58</v>
+      </c>
+      <c r="L23">
         <v>8</v>
       </c>
-      <c r="N22" t="s">
-        <v>86</v>
-      </c>
-      <c r="O22">
+      <c r="M23">
+        <v>1.2</v>
+      </c>
+      <c r="N23">
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="C23" t="s">
-        <v>53</v>
-      </c>
-      <c r="H23" t="s">
-        <v>60</v>
-      </c>
-      <c r="M23">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="C24" t="s">
+        <v>52</v>
+      </c>
+      <c r="G24" t="s">
+        <v>58</v>
+      </c>
+      <c r="L24">
         <v>8</v>
       </c>
-      <c r="N23" t="s">
-        <v>86</v>
-      </c>
-      <c r="O23">
+      <c r="M24">
+        <v>1.2</v>
+      </c>
+      <c r="N24">
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="C24" t="s">
-        <v>54</v>
-      </c>
-      <c r="H24" t="s">
-        <v>60</v>
-      </c>
-      <c r="M24">
-        <v>8</v>
-      </c>
-      <c r="N24" t="s">
-        <v>86</v>
-      </c>
-      <c r="O24">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B25">
         <v>4</v>
       </c>
       <c r="C25" t="s">
-        <v>55</v>
-      </c>
-      <c r="L25" t="s">
-        <v>60</v>
+        <v>53</v>
+      </c>
+      <c r="K25" t="s">
+        <v>58</v>
+      </c>
+      <c r="L25">
+        <v>11</v>
       </c>
       <c r="M25">
+        <v>1</v>
+      </c>
+      <c r="N25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="C26" t="s">
+        <v>44</v>
+      </c>
+      <c r="J26" t="s">
+        <v>58</v>
+      </c>
+      <c r="L26">
         <v>11</v>
       </c>
-      <c r="N25">
+      <c r="M26">
         <v>1</v>
       </c>
-      <c r="O25">
+      <c r="N26">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="C26" t="s">
-        <v>46</v>
-      </c>
-      <c r="K26" t="s">
-        <v>60</v>
-      </c>
-      <c r="M26">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="C27" t="s">
+        <v>33</v>
+      </c>
+      <c r="F27" t="s">
+        <v>58</v>
+      </c>
+      <c r="G27" t="s">
+        <v>62</v>
+      </c>
+      <c r="K27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L27">
         <v>11</v>
       </c>
-      <c r="N26">
+      <c r="M27">
         <v>1</v>
       </c>
-      <c r="O26">
+      <c r="N27">
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="C27" t="s">
-        <v>35</v>
-      </c>
-      <c r="G27" t="s">
-        <v>60</v>
-      </c>
-      <c r="H27" t="s">
-        <v>64</v>
-      </c>
-      <c r="L27" t="s">
-        <v>60</v>
-      </c>
-      <c r="M27">
-        <v>11</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.4">
       <c r="C28" t="s">
         <v>6</v>
       </c>
-      <c r="J28" t="s">
-        <v>60</v>
+      <c r="I28" t="s">
+        <v>58</v>
+      </c>
+      <c r="L28">
+        <v>11</v>
       </c>
       <c r="M28">
+        <v>1</v>
+      </c>
+      <c r="N28">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="C29" t="s">
+        <v>35</v>
+      </c>
+      <c r="F29" t="s">
+        <v>58</v>
+      </c>
+      <c r="J29" t="s">
+        <v>58</v>
+      </c>
+      <c r="L29">
         <v>11</v>
       </c>
-      <c r="N28">
+      <c r="M29">
         <v>1</v>
       </c>
-      <c r="O28">
+      <c r="N29">
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="C29" t="s">
-        <v>37</v>
-      </c>
-      <c r="G29" t="s">
-        <v>60</v>
-      </c>
-      <c r="K29" t="s">
-        <v>60</v>
-      </c>
-      <c r="M29">
-        <v>11</v>
-      </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B30">
         <v>4.5</v>
       </c>
       <c r="C30" t="s">
         <v>7</v>
       </c>
-      <c r="I30" t="s">
-        <v>60</v>
-      </c>
-      <c r="K30" t="s">
-        <v>60</v>
+      <c r="H30" t="s">
+        <v>58</v>
+      </c>
+      <c r="J30" t="s">
+        <v>58</v>
+      </c>
+      <c r="L30">
+        <v>13</v>
       </c>
       <c r="M30">
+        <v>0.7</v>
+      </c>
+      <c r="N30">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="C31" t="s">
+        <v>34</v>
+      </c>
+      <c r="F31" t="s">
+        <v>58</v>
+      </c>
+      <c r="J31" t="s">
+        <v>58</v>
+      </c>
+      <c r="L31">
         <v>13</v>
       </c>
-      <c r="N30">
+      <c r="M31">
         <v>0.7</v>
       </c>
-      <c r="O30">
+      <c r="N31">
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="C31" t="s">
-        <v>36</v>
-      </c>
-      <c r="G31" t="s">
-        <v>60</v>
-      </c>
-      <c r="K31" t="s">
-        <v>60</v>
-      </c>
-      <c r="M31">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="C32" t="s">
+        <v>54</v>
+      </c>
+      <c r="I32" t="s">
+        <v>58</v>
+      </c>
+      <c r="L32">
         <v>13</v>
       </c>
-      <c r="N31">
+      <c r="M32">
         <v>0.7</v>
       </c>
-      <c r="O31">
+      <c r="N32">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="C32" t="s">
-        <v>56</v>
-      </c>
-      <c r="J32" t="s">
-        <v>60</v>
-      </c>
-      <c r="M32">
+    <row r="33" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="C33" t="s">
+        <v>55</v>
+      </c>
+      <c r="H33" t="s">
+        <v>58</v>
+      </c>
+      <c r="L33">
         <v>13</v>
       </c>
-      <c r="N32">
+      <c r="M33">
         <v>0.7</v>
       </c>
-      <c r="O32">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="33" spans="3:15" x14ac:dyDescent="0.4">
-      <c r="C33" t="s">
-        <v>57</v>
-      </c>
-      <c r="I33" t="s">
-        <v>60</v>
-      </c>
-      <c r="M33">
-        <v>13</v>
-      </c>
       <c r="N33">
-        <v>0.7</v>
-      </c>
-      <c r="O33">
         <v>30</v>
       </c>
     </row>
@@ -1449,10 +1449,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43AFF31E-3DD1-41A7-9298-AC8C1EC63368}">
-  <dimension ref="B2:I20"/>
+  <dimension ref="B2:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView zoomScale="85" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1460,165 +1460,166 @@
     <col min="4" max="4" width="22.19921875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28.09765625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="29.3984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.09765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.5" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="32.59765625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.09765625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="28.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B3" s="2"/>
-      <c r="C3" s="2" t="s">
+      <c r="D3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E3" t="s">
+        <v>86</v>
+      </c>
+      <c r="J3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D4">
+        <v>13</v>
+      </c>
+      <c r="E4">
+        <v>0.7</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5">
+        <v>20</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6">
+        <v>30</v>
+      </c>
+      <c r="F6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7">
+        <v>40</v>
+      </c>
+      <c r="G7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D8">
+        <v>50</v>
+      </c>
+      <c r="F8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="D16" t="s">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B4" s="2">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4">
-        <v>0.7</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B5" s="2">
-        <v>2</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B6" s="2">
-        <v>3</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B7" s="2">
-        <v>4</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I7" s="2"/>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B8" s="2">
-        <v>5</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="D16" t="s">
-        <v>12</v>
-      </c>
       <c r="E16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D18" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E18" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D19" t="s">
-        <v>29</v>
+        <v>27</v>
+      </c>
+      <c r="E19" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D20" t="s">
-        <v>30</v>
+        <v>28</v>
+      </c>
+      <c r="E20" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -1628,6 +1629,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="문서" ma:contentTypeID="0x010100ECF9E722297AC345B2A57380052E5E48" ma:contentTypeVersion="4" ma:contentTypeDescription="새 문서를 만듭니다." ma:contentTypeScope="" ma:versionID="78363713d41ce0922b6fd80264949de2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="fd57ced1-2b3e-49e2-9044-0235051c91ef" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2f281e80ea270599bc48a95ad500a678" ns3:_="">
     <xsd:import namespace="fd57ced1-2b3e-49e2-9044-0235051c91ef"/>
@@ -1773,22 +1789,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77EAD5D9-46C0-4150-B405-47AA29834A98}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="fd57ced1-2b3e-49e2-9044-0235051c91ef"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{492BDB53-1B45-4109-8E85-9000C6560349}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4AAF691E-2AC5-4FDA-9D18-61109D120562}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1804,28 +1829,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{492BDB53-1B45-4109-8E85-9000C6560349}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77EAD5D9-46C0-4150-B405-47AA29834A98}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="fd57ced1-2b3e-49e2-9044-0235051c91ef"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/랜덤교수님디펜스_요소정리본.xlsx
+++ b/랜덤교수님디펜스_요소정리본.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joosa\OneDrive\바탕 화면\Git 연습\random-professor-defense\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joosa\OneDrive\바탕 화면\랜덤교수디펜트 발표 자료\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{911661DB-5533-4031-887E-D91F840D0840}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BB166CB-9C37-4F87-ABE3-74FA319AA2CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{60008300-A602-4F4E-9C10-0368E2679821}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{60008300-A602-4F4E-9C10-0368E2679821}"/>
   </bookViews>
   <sheets>
     <sheet name="선배" sheetId="1" r:id="rId1"/>
     <sheet name="빌런" sheetId="2" r:id="rId2"/>
+    <sheet name="웨이브 정보" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="107">
   <si>
     <t>선배들</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -409,6 +410,58 @@
   <si>
     <t>3/4/5</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stage 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stage 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wave =&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>교수 등급</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주는 돈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1등급</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>총 지급 금액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선배 금액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지 총 지급 금액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2등급</t>
+  </si>
+  <si>
+    <t>3등급</t>
+  </si>
+  <si>
+    <t>4등급</t>
+  </si>
+  <si>
+    <t>5등급</t>
   </si>
 </sst>
 </file>
@@ -781,10 +834,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{859DCE7D-6C53-4BF5-8718-A5E31E362420}">
-  <dimension ref="B1:N33"/>
+  <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="58" workbookViewId="0">
-      <selection activeCell="O35" sqref="O35"/>
+    <sheetView zoomScale="58" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -798,12 +851,12 @@
     <col min="11" max="11" width="27.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
       <c r="D1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
       <c r="D2" t="s">
         <v>68</v>
       </c>
@@ -835,7 +888,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -867,7 +920,10 @@
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>98</v>
+      </c>
       <c r="B4" t="s">
         <v>1</v>
       </c>
@@ -899,7 +955,10 @@
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>30</v>
+      </c>
       <c r="B5">
         <v>3</v>
       </c>
@@ -922,7 +981,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
       <c r="C6" t="s">
         <v>3</v>
       </c>
@@ -939,7 +998,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
       <c r="C7" t="s">
         <v>37</v>
       </c>
@@ -956,7 +1015,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
       <c r="C8" t="s">
         <v>38</v>
       </c>
@@ -973,7 +1032,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
       <c r="C9" t="s">
         <v>39</v>
       </c>
@@ -990,7 +1049,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
       <c r="C10" t="s">
         <v>40</v>
       </c>
@@ -1007,7 +1066,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
       <c r="C11" t="s">
         <v>45</v>
       </c>
@@ -1027,7 +1086,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
       <c r="C12" t="s">
         <v>46</v>
       </c>
@@ -1047,7 +1106,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
       <c r="C13" t="s">
         <v>48</v>
       </c>
@@ -1067,7 +1126,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
       <c r="C14" t="s">
         <v>47</v>
       </c>
@@ -1087,7 +1146,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
       <c r="C15" t="s">
         <v>50</v>
       </c>
@@ -1104,7 +1163,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
       <c r="C16" t="s">
         <v>49</v>
       </c>
@@ -1124,7 +1183,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A17">
+        <v>40</v>
+      </c>
       <c r="B17">
         <v>3.5</v>
       </c>
@@ -1144,7 +1206,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.4">
       <c r="C18" t="s">
         <v>42</v>
       </c>
@@ -1161,7 +1223,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.4">
       <c r="C19" t="s">
         <v>5</v>
       </c>
@@ -1178,7 +1240,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.4">
       <c r="C20" t="s">
         <v>43</v>
       </c>
@@ -1198,7 +1260,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.4">
       <c r="C21" t="s">
         <v>36</v>
       </c>
@@ -1215,7 +1277,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.4">
       <c r="C22" t="s">
         <v>41</v>
       </c>
@@ -1232,7 +1294,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.4">
       <c r="C23" t="s">
         <v>51</v>
       </c>
@@ -1249,7 +1311,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.4">
       <c r="C24" t="s">
         <v>52</v>
       </c>
@@ -1266,7 +1328,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A25">
+        <v>50</v>
+      </c>
       <c r="B25">
         <v>4</v>
       </c>
@@ -1286,7 +1351,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.4">
       <c r="C26" t="s">
         <v>44</v>
       </c>
@@ -1303,7 +1368,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.4">
       <c r="C27" t="s">
         <v>33</v>
       </c>
@@ -1326,7 +1391,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.4">
       <c r="C28" t="s">
         <v>6</v>
       </c>
@@ -1343,7 +1408,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.4">
       <c r="C29" t="s">
         <v>35</v>
       </c>
@@ -1363,7 +1428,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A30">
+        <v>60</v>
+      </c>
       <c r="B30">
         <v>4.5</v>
       </c>
@@ -1386,7 +1454,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.4">
       <c r="C31" t="s">
         <v>34</v>
       </c>
@@ -1406,7 +1474,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.4">
       <c r="C32" t="s">
         <v>54</v>
       </c>
@@ -1449,10 +1517,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43AFF31E-3DD1-41A7-9298-AC8C1EC63368}">
-  <dimension ref="B2:J20"/>
+  <dimension ref="A2:J20"/>
   <sheetViews>
-    <sheetView zoomScale="85" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView zoomScale="69" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1462,16 +1530,19 @@
     <col min="6" max="6" width="29.3984375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="31.5" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="32.59765625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.09765625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="34.796875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="28.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>97</v>
+      </c>
       <c r="C3" t="s">
         <v>9</v>
       </c>
@@ -1485,7 +1556,10 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>20</v>
+      </c>
       <c r="B4">
         <v>1</v>
       </c>
@@ -1511,7 +1585,10 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>20</v>
+      </c>
       <c r="B5">
         <v>2</v>
       </c>
@@ -1528,7 +1605,10 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>25</v>
+      </c>
       <c r="B6">
         <v>3</v>
       </c>
@@ -1545,7 +1625,10 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>30</v>
+      </c>
       <c r="B7">
         <v>4</v>
       </c>
@@ -1562,7 +1645,10 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>45</v>
+      </c>
       <c r="B8">
         <v>5</v>
       </c>
@@ -1582,7 +1668,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="D16" t="s">
         <v>10</v>
       </c>
@@ -1620,6 +1706,815 @@
       </c>
       <c r="E20" t="s">
         <v>91</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30522AE8-4EA2-4EE9-892D-7C692BAAA530}">
+  <dimension ref="A1:R22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.19921875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="C1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>3</v>
+      </c>
+      <c r="G2">
+        <v>4</v>
+      </c>
+      <c r="H2">
+        <v>5</v>
+      </c>
+      <c r="I2">
+        <v>6</v>
+      </c>
+      <c r="J2">
+        <v>7</v>
+      </c>
+      <c r="K2">
+        <v>8</v>
+      </c>
+      <c r="L2">
+        <v>9</v>
+      </c>
+      <c r="M2">
+        <v>10</v>
+      </c>
+      <c r="N2">
+        <v>11</v>
+      </c>
+      <c r="O2">
+        <v>12</v>
+      </c>
+      <c r="P2">
+        <v>13</v>
+      </c>
+      <c r="Q2">
+        <v>14</v>
+      </c>
+      <c r="R2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>100</v>
+      </c>
+      <c r="B3">
+        <v>50</v>
+      </c>
+      <c r="C3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>4</v>
+      </c>
+      <c r="G3">
+        <v>4</v>
+      </c>
+      <c r="H3">
+        <v>3</v>
+      </c>
+      <c r="I3">
+        <v>3</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
+      </c>
+      <c r="K3">
+        <v>2</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>3</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>150</v>
+      </c>
+      <c r="B4">
+        <v>50</v>
+      </c>
+      <c r="C4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <v>3</v>
+      </c>
+      <c r="J4">
+        <v>3</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>5</v>
+      </c>
+      <c r="M4">
+        <v>3</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>200</v>
+      </c>
+      <c r="B5">
+        <v>65</v>
+      </c>
+      <c r="C5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <v>5</v>
+      </c>
+      <c r="I5">
+        <v>3</v>
+      </c>
+      <c r="J5">
+        <v>4</v>
+      </c>
+      <c r="K5">
+        <v>6</v>
+      </c>
+      <c r="L5">
+        <v>5</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>2</v>
+      </c>
+      <c r="O5">
+        <v>2</v>
+      </c>
+      <c r="P5">
+        <v>2</v>
+      </c>
+      <c r="Q5">
+        <v>2</v>
+      </c>
+      <c r="R5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>300</v>
+      </c>
+      <c r="B6">
+        <v>80</v>
+      </c>
+      <c r="C6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>5</v>
+      </c>
+      <c r="M6">
+        <v>10</v>
+      </c>
+      <c r="N6">
+        <v>5</v>
+      </c>
+      <c r="O6">
+        <v>5</v>
+      </c>
+      <c r="P6">
+        <v>5</v>
+      </c>
+      <c r="Q6">
+        <v>7</v>
+      </c>
+      <c r="R6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B7">
+        <v>100</v>
+      </c>
+      <c r="C7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>3</v>
+      </c>
+      <c r="O7">
+        <v>5</v>
+      </c>
+      <c r="P7">
+        <v>7</v>
+      </c>
+      <c r="Q7">
+        <v>10</v>
+      </c>
+      <c r="R7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="C8" t="s">
+        <v>100</v>
+      </c>
+      <c r="D8">
+        <f xml:space="preserve"> SUM(D3*50+D4*50+D5*65+D6*80+D7*100)</f>
+        <v>250</v>
+      </c>
+      <c r="E8">
+        <f t="shared" ref="E8:R8" si="0" xml:space="preserve"> SUM(E3*50+E4*50+E5*65+E6*80+E7*100)</f>
+        <v>250</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>350</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>480</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>575</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>495</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>510</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="0"/>
+        <v>800</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="0"/>
+        <v>975</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="0"/>
+        <v>1100</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="0"/>
+        <v>830</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="0"/>
+        <v>1030</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="0"/>
+        <v>1230</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="0"/>
+        <v>1690</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="0"/>
+        <v>1930</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="C9" t="s">
+        <v>102</v>
+      </c>
+      <c r="D9">
+        <f>SUM(D8,E8,F8,G8:R8)</f>
+        <v>12495</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="C15" t="s">
+        <v>94</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
+      <c r="G15">
+        <v>4</v>
+      </c>
+      <c r="H15">
+        <v>5</v>
+      </c>
+      <c r="I15">
+        <v>6</v>
+      </c>
+      <c r="J15">
+        <v>7</v>
+      </c>
+      <c r="K15">
+        <v>8</v>
+      </c>
+      <c r="L15">
+        <v>9</v>
+      </c>
+      <c r="M15">
+        <v>10</v>
+      </c>
+      <c r="N15">
+        <v>11</v>
+      </c>
+      <c r="O15">
+        <v>12</v>
+      </c>
+      <c r="P15">
+        <v>13</v>
+      </c>
+      <c r="Q15">
+        <v>14</v>
+      </c>
+      <c r="R15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="C16" t="s">
+        <v>99</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.4">
+      <c r="C17" t="s">
+        <v>103</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.4">
+      <c r="C18" t="s">
+        <v>104</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.4">
+      <c r="C19" t="s">
+        <v>105</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.4">
+      <c r="C20" t="s">
+        <v>106</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.4">
+      <c r="C21" t="s">
+        <v>100</v>
+      </c>
+      <c r="D21">
+        <f t="shared" ref="D21:R21" si="1" xml:space="preserve"> SUM(D16*20+D17*20+D18*25+D19*30+D20*45)</f>
+        <v>60</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.4">
+      <c r="C22" t="s">
+        <v>102</v>
+      </c>
+      <c r="D22">
+        <f>SUM(D21,D21:R21)</f>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -1629,21 +2524,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="문서" ma:contentTypeID="0x010100ECF9E722297AC345B2A57380052E5E48" ma:contentTypeVersion="4" ma:contentTypeDescription="새 문서를 만듭니다." ma:contentTypeScope="" ma:versionID="78363713d41ce0922b6fd80264949de2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="fd57ced1-2b3e-49e2-9044-0235051c91ef" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2f281e80ea270599bc48a95ad500a678" ns3:_="">
     <xsd:import namespace="fd57ced1-2b3e-49e2-9044-0235051c91ef"/>
@@ -1789,7 +2669,40 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4AAF691E-2AC5-4FDA-9D18-61109D120562}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="fd57ced1-2b3e-49e2-9044-0235051c91ef"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77EAD5D9-46C0-4150-B405-47AA29834A98}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
@@ -1805,28 +2718,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{492BDB53-1B45-4109-8E85-9000C6560349}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4AAF691E-2AC5-4FDA-9D18-61109D120562}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="fd57ced1-2b3e-49e2-9044-0235051c91ef"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>